--- a/reporte.xlsx
+++ b/reporte.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\armac\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22E9EB53-9BD6-4431-8642-BCE601915B2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{823BFB5F-FBEE-48FA-AE21-43F30970082E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Datos y Análisis" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -212,9 +207,6 @@
     <t>Claudia Juan Mamani Medina</t>
   </si>
   <si>
-    <t>Luis Sofía Maldonado Paredes</t>
-  </si>
-  <si>
     <t>Pedro Alejandra Fernández Castro</t>
   </si>
   <si>
@@ -630,6 +622,9 @@
   </si>
   <si>
     <t>Sujei Rosado</t>
+  </si>
+  <si>
+    <t>Luisa Sofía Maldonado Paredes</t>
   </si>
 </sst>
 </file>
@@ -738,9 +733,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -778,9 +773,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -813,9 +808,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -848,9 +860,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1026,26 +1055,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N199"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A199" workbookViewId="0">
-      <selection activeCell="B186" sqref="B186"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.21875" customWidth="1"/>
-    <col min="2" max="2" width="36.6640625" customWidth="1"/>
-    <col min="3" max="3" width="8.109375" customWidth="1"/>
-    <col min="4" max="4" width="18.21875" customWidth="1"/>
-    <col min="5" max="5" width="15.88671875" customWidth="1"/>
-    <col min="6" max="6" width="17.44140625" customWidth="1"/>
-    <col min="7" max="7" width="16.77734375" customWidth="1"/>
+    <col min="1" max="1" width="29.28515625" customWidth="1"/>
+    <col min="2" max="2" width="36.7109375" customWidth="1"/>
+    <col min="3" max="3" width="8.140625" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" customWidth="1"/>
     <col min="8" max="8" width="20" customWidth="1"/>
-    <col min="9" max="9" width="19.6640625" customWidth="1"/>
-    <col min="10" max="10" width="25.33203125" customWidth="1"/>
-    <col min="11" max="11" width="21.5546875" customWidth="1"/>
+    <col min="9" max="9" width="19.7109375" customWidth="1"/>
+    <col min="10" max="10" width="25.28515625" customWidth="1"/>
+    <col min="11" max="11" width="21.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1089,7 +1118,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1136,7 +1165,7 @@
         <v>12.940000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1183,7 +1212,7 @@
         <v>7.1999999999999993</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1230,7 +1259,7 @@
         <v>15.88</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -1277,7 +1306,7 @@
         <v>10.799999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -1324,7 +1353,7 @@
         <v>11.700000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -1371,7 +1400,7 @@
         <v>13.780000000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1418,7 +1447,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -1465,7 +1494,7 @@
         <v>19.059999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -1512,7 +1541,7 @@
         <v>5.9400000000000013</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -1559,7 +1588,7 @@
         <v>11.46</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -1606,7 +1635,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -1653,7 +1682,7 @@
         <v>19.059999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -1700,7 +1729,7 @@
         <v>9.7799999999999994</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -1747,7 +1776,7 @@
         <v>13.48</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -1794,7 +1823,7 @@
         <v>8.58</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -1841,7 +1870,7 @@
         <v>10.620000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -1888,7 +1917,7 @@
         <v>15.46</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -1935,7 +1964,7 @@
         <v>18.940000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -1982,7 +2011,7 @@
         <v>15.88</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -2029,7 +2058,7 @@
         <v>13.240000000000002</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -2076,7 +2105,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -2123,7 +2152,7 @@
         <v>9.7199999999999989</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -2170,7 +2199,7 @@
         <v>6.78</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -2217,7 +2246,7 @@
         <v>11.639999999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -2264,7 +2293,7 @@
         <v>17.2</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -2311,7 +2340,7 @@
         <v>17.979999999999997</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -2358,7 +2387,7 @@
         <v>19.18</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -2405,7 +2434,7 @@
         <v>13.239999999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -2452,7 +2481,7 @@
         <v>8.1000000000000014</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -2499,7 +2528,7 @@
         <v>15.28</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -2546,59 +2575,59 @@
         <v>18.999999999999996</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A33" s="2">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
         <v>32</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C33" s="2">
+      <c r="B33" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C33" s="3">
         <v>72</v>
       </c>
-      <c r="D33" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E33" s="2" t="s">
+      <c r="D33" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E33" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F33" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H33" s="2" t="s">
+      <c r="F33" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H33" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="I33" s="2">
-        <v>0</v>
-      </c>
-      <c r="J33" s="2">
-        <v>0</v>
-      </c>
-      <c r="K33" s="2">
+      <c r="I33" s="3">
+        <v>0</v>
+      </c>
+      <c r="J33" s="3">
+        <v>0</v>
+      </c>
+      <c r="K33" s="3">
         <v>5</v>
       </c>
-      <c r="L33" s="2">
+      <c r="L33" s="3">
         <f t="shared" si="0"/>
         <v>29.3</v>
       </c>
-      <c r="M33" s="2">
+      <c r="M33" s="3">
         <f>IF(C33&gt;AVERAGE(C2:C151), 1, 0)</f>
         <v>1</v>
       </c>
-      <c r="N33" s="2">
+      <c r="N33" s="3">
         <f t="shared" si="1"/>
         <v>17.979999999999997</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C34" s="2">
         <v>18</v>
@@ -2640,12 +2669,12 @@
         <v>4.9200000000000008</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C35" s="2">
         <v>74</v>
@@ -2687,12 +2716,12 @@
         <v>18.88</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C36" s="2">
         <v>68</v>
@@ -2734,12 +2763,12 @@
         <v>17.62</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C37" s="2">
         <v>49</v>
@@ -2781,12 +2810,12 @@
         <v>12.600000000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C38" s="2">
         <v>75</v>
@@ -2828,12 +2857,12 @@
         <v>18.88</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C39" s="2">
         <v>49</v>
@@ -2875,12 +2904,12 @@
         <v>12.300000000000002</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C40" s="2">
         <v>40</v>
@@ -2922,12 +2951,12 @@
         <v>10.620000000000001</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C41" s="2">
         <v>59</v>
@@ -2969,12 +2998,12 @@
         <v>15.4</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C42" s="2">
         <v>32</v>
@@ -3016,12 +3045,12 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C43" s="2">
         <v>35</v>
@@ -3063,12 +3092,12 @@
         <v>9.18</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C44" s="2">
         <v>41</v>
@@ -3110,12 +3139,12 @@
         <v>10.26</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C45" s="2">
         <v>74</v>
@@ -3157,12 +3186,12 @@
         <v>18.759999999999998</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C46" s="2">
         <v>56</v>
@@ -3204,12 +3233,12 @@
         <v>14.860000000000003</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C47" s="2">
         <v>65</v>
@@ -3251,12 +3280,12 @@
         <v>16.66</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C48" s="2">
         <v>33</v>
@@ -3298,12 +3327,12 @@
         <v>8.4600000000000009</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C49" s="2">
         <v>47</v>
@@ -3345,12 +3374,12 @@
         <v>11.940000000000001</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C50" s="2">
         <v>55</v>
@@ -3392,12 +3421,12 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C51" s="2">
         <v>62</v>
@@ -3439,12 +3468,12 @@
         <v>15.88</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>51</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C52" s="2">
         <v>64</v>
@@ -3486,12 +3515,12 @@
         <v>16.54</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>52</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C53" s="2">
         <v>45</v>
@@ -3533,12 +3562,12 @@
         <v>11.52</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>53</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C54" s="2">
         <v>36</v>
@@ -3580,12 +3609,12 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>54</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C55" s="2">
         <v>51</v>
@@ -3627,12 +3656,12 @@
         <v>13.120000000000001</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>55</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C56" s="2">
         <v>69</v>
@@ -3674,12 +3703,12 @@
         <v>17.559999999999999</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>56</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C57" s="2">
         <v>47</v>
@@ -3721,12 +3750,12 @@
         <v>11.58</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>57</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C58" s="2">
         <v>48</v>
@@ -3768,12 +3797,12 @@
         <v>12.180000000000001</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>58</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C59" s="2">
         <v>59</v>
@@ -3815,12 +3844,12 @@
         <v>15.040000000000001</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>59</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C60" s="2">
         <v>70</v>
@@ -3862,12 +3891,12 @@
         <v>17.739999999999998</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>60</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C61" s="2">
         <v>21</v>
@@ -3909,12 +3938,12 @@
         <v>5.2799999999999994</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>61</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C62" s="2">
         <v>21</v>
@@ -3956,12 +3985,12 @@
         <v>5.64</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>62</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C63" s="2">
         <v>54</v>
@@ -4003,12 +4032,12 @@
         <v>14.200000000000003</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>63</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C64" s="2">
         <v>21</v>
@@ -4050,12 +4079,12 @@
         <v>5.34</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>64</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C65" s="2">
         <v>20</v>
@@ -4097,12 +4126,12 @@
         <v>5.3999999999999995</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>65</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C66" s="2">
         <v>65</v>
@@ -4144,12 +4173,12 @@
         <v>16.54</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>66</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C67" s="2">
         <v>37</v>
@@ -4191,12 +4220,12 @@
         <v>9.24</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>67</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C68" s="2">
         <v>29</v>
@@ -4238,12 +4267,12 @@
         <v>7.3800000000000008</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>68</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C69" s="2">
         <v>60</v>
@@ -4285,12 +4314,12 @@
         <v>15.46</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>69</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C70" s="2">
         <v>73</v>
@@ -4332,12 +4361,12 @@
         <v>18.279999999999998</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>70</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C71" s="2">
         <v>80</v>
@@ -4379,12 +4408,12 @@
         <v>20.080000000000002</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>71</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C72" s="2">
         <v>25</v>
@@ -4426,12 +4455,12 @@
         <v>6.36</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>72</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C73" s="2">
         <v>75</v>
@@ -4473,12 +4502,12 @@
         <v>18.819999999999997</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>73</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C74" s="2">
         <v>57</v>
@@ -4520,12 +4549,12 @@
         <v>14.740000000000002</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>74</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C75" s="2">
         <v>74</v>
@@ -4567,12 +4596,12 @@
         <v>18.399999999999999</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>75</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C76" s="2">
         <v>70</v>
@@ -4614,12 +4643,12 @@
         <v>17.439999999999998</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>76</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C77" s="2">
         <v>24</v>
@@ -4661,12 +4690,12 @@
         <v>6.3000000000000007</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>77</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C78" s="2">
         <v>45</v>
@@ -4708,12 +4737,12 @@
         <v>11.4</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>78</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C79" s="2">
         <v>22</v>
@@ -4755,12 +4784,12 @@
         <v>5.94</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>79</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C80" s="2">
         <v>61</v>
@@ -4802,12 +4831,12 @@
         <v>15.58</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>80</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C81" s="2">
         <v>25</v>
@@ -4849,12 +4878,12 @@
         <v>6.84</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>81</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C82" s="2">
         <v>43</v>
@@ -4896,12 +4925,12 @@
         <v>11.04</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>82</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C83" s="2">
         <v>35</v>
@@ -4943,12 +4972,12 @@
         <v>8.8800000000000008</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>83</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C84" s="2">
         <v>46</v>
@@ -4990,12 +5019,12 @@
         <v>11.580000000000002</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>84</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C85" s="2">
         <v>49</v>
@@ -5037,12 +5066,12 @@
         <v>12.18</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>85</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C86" s="2">
         <v>67</v>
@@ -5084,12 +5113,12 @@
         <v>16.779999999999998</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>86</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C87" s="2">
         <v>32</v>
@@ -5131,12 +5160,12 @@
         <v>8.64</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>87</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C88" s="2">
         <v>66</v>
@@ -5178,12 +5207,12 @@
         <v>17.14</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>88</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C89" s="2">
         <v>54</v>
@@ -5225,12 +5254,12 @@
         <v>14.200000000000003</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>89</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C90" s="2">
         <v>29</v>
@@ -5272,12 +5301,12 @@
         <v>7.32</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>90</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C91" s="2">
         <v>62</v>
@@ -5319,12 +5348,12 @@
         <v>15.88</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>91</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C92" s="2">
         <v>18</v>
@@ -5366,12 +5395,12 @@
         <v>4.5600000000000005</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>92</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C93" s="2">
         <v>41</v>
@@ -5413,12 +5442,12 @@
         <v>10.320000000000002</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>93</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C94" s="2">
         <v>57</v>
@@ -5460,12 +5489,12 @@
         <v>14.38</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>94</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C95" s="2">
         <v>50</v>
@@ -5507,12 +5536,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>95</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C96" s="2">
         <v>34</v>
@@ -5554,12 +5583,12 @@
         <v>8.58</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>96</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C97" s="2">
         <v>77</v>
@@ -5601,12 +5630,12 @@
         <v>19.419999999999998</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>97</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C98" s="2">
         <v>67</v>
@@ -5648,12 +5677,12 @@
         <v>16.72</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>98</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C99" s="2">
         <v>42</v>
@@ -5695,12 +5724,12 @@
         <v>10.860000000000001</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <v>99</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C100" s="2">
         <v>58</v>
@@ -5742,12 +5771,12 @@
         <v>14.680000000000003</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <v>100</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C101" s="2">
         <v>69</v>
@@ -5789,12 +5818,12 @@
         <v>17.2</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <v>101</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C102" s="2">
         <v>35</v>
@@ -5836,12 +5865,12 @@
         <v>8.8800000000000008</v>
       </c>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
         <v>102</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C103" s="2">
         <v>55</v>
@@ -5883,12 +5912,12 @@
         <v>13.9</v>
       </c>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <v>103</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C104" s="2">
         <v>37</v>
@@ -5930,12 +5959,12 @@
         <v>9.7199999999999989</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
         <v>104</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C105" s="2">
         <v>38</v>
@@ -5977,12 +6006,12 @@
         <v>9.66</v>
       </c>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
         <v>105</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C106" s="2">
         <v>25</v>
@@ -6024,12 +6053,12 @@
         <v>6.36</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
         <v>106</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C107" s="2">
         <v>31</v>
@@ -6071,12 +6100,12 @@
         <v>8.2799999999999994</v>
       </c>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
         <v>107</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C108" s="2">
         <v>78</v>
@@ -6118,12 +6147,12 @@
         <v>19.78</v>
       </c>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
         <v>108</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C109" s="2">
         <v>78</v>
@@ -6165,12 +6194,12 @@
         <v>19.36</v>
       </c>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
         <v>109</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C110" s="2">
         <v>42</v>
@@ -6212,12 +6241,12 @@
         <v>10.799999999999999</v>
       </c>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
         <v>110</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C111" s="2">
         <v>79</v>
@@ -6259,12 +6288,12 @@
         <v>20.38</v>
       </c>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
         <v>111</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C112" s="2">
         <v>30</v>
@@ -6306,12 +6335,12 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
         <v>112</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C113" s="2">
         <v>75</v>
@@ -6353,12 +6382,12 @@
         <v>18.819999999999997</v>
       </c>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
         <v>113</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C114" s="2">
         <v>30</v>
@@ -6400,12 +6429,12 @@
         <v>7.919999999999999</v>
       </c>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
         <v>114</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C115" s="2">
         <v>50</v>
@@ -6447,12 +6476,12 @@
         <v>12.759999999999998</v>
       </c>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
         <v>115</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C116" s="2">
         <v>57</v>
@@ -6494,12 +6523,12 @@
         <v>14.860000000000001</v>
       </c>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
         <v>116</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C117" s="2">
         <v>62</v>
@@ -6541,12 +6570,12 @@
         <v>15.639999999999999</v>
       </c>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
         <v>117</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C118" s="2">
         <v>18</v>
@@ -6588,12 +6617,12 @@
         <v>5.1599999999999993</v>
       </c>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
         <v>118</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C119" s="2">
         <v>61</v>
@@ -6635,12 +6664,12 @@
         <v>16.060000000000002</v>
       </c>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
         <v>119</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C120" s="2">
         <v>37</v>
@@ -6682,12 +6711,12 @@
         <v>9.42</v>
       </c>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
         <v>120</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C121" s="2">
         <v>26</v>
@@ -6729,12 +6758,12 @@
         <v>6.3599999999999994</v>
       </c>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
         <v>121</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C122" s="2">
         <v>18</v>
@@ -6776,12 +6805,12 @@
         <v>5.1599999999999993</v>
       </c>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
         <v>122</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C123" s="2">
         <v>31</v>
@@ -6823,12 +6852,12 @@
         <v>8.0399999999999991</v>
       </c>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
         <v>123</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C124" s="2">
         <v>63</v>
@@ -6870,12 +6899,12 @@
         <v>16.419999999999998</v>
       </c>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
         <v>124</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C125" s="2">
         <v>47</v>
@@ -6917,12 +6946,12 @@
         <v>11.88</v>
       </c>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
         <v>125</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C126" s="2">
         <v>45</v>
@@ -6964,12 +6993,12 @@
         <v>11.64</v>
       </c>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
         <v>126</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C127" s="2">
         <v>59</v>
@@ -7011,12 +7040,12 @@
         <v>14.799999999999999</v>
       </c>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
         <v>127</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C128" s="2">
         <v>74</v>
@@ -7058,12 +7087,12 @@
         <v>18.52</v>
       </c>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
         <v>128</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C129" s="2">
         <v>25</v>
@@ -7105,12 +7134,12 @@
         <v>6.6599999999999993</v>
       </c>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
         <v>129</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C130" s="2">
         <v>44</v>
@@ -7152,12 +7181,12 @@
         <v>11.219999999999999</v>
       </c>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A131" s="2">
         <v>130</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C131" s="2">
         <v>20</v>
@@ -7199,12 +7228,12 @@
         <v>5.28</v>
       </c>
     </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
         <v>131</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C132" s="2">
         <v>74</v>
@@ -7246,12 +7275,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A133" s="2">
         <v>132</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C133" s="2">
         <v>42</v>
@@ -7293,12 +7322,12 @@
         <v>10.319999999999999</v>
       </c>
     </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
         <v>133</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C134" s="2">
         <v>18</v>
@@ -7340,12 +7369,12 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A135" s="2">
         <v>134</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C135" s="2">
         <v>22</v>
@@ -7387,12 +7416,12 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A136" s="2">
         <v>135</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C136" s="2">
         <v>80</v>
@@ -7434,12 +7463,12 @@
         <v>20.02</v>
       </c>
     </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A137" s="2">
         <v>136</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C137" s="2">
         <v>74</v>
@@ -7481,12 +7510,12 @@
         <v>18.579999999999998</v>
       </c>
     </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A138" s="2">
         <v>137</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C138" s="2">
         <v>59</v>
@@ -7528,12 +7557,12 @@
         <v>14.799999999999999</v>
       </c>
     </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A139" s="2">
         <v>138</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C139" s="2">
         <v>61</v>
@@ -7575,12 +7604,12 @@
         <v>15.7</v>
       </c>
     </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A140" s="2">
         <v>139</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C140" s="2">
         <v>44</v>
@@ -7622,12 +7651,12 @@
         <v>10.799999999999999</v>
       </c>
     </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
         <v>140</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C141" s="2">
         <v>27</v>
@@ -7669,12 +7698,12 @@
         <v>7.0200000000000005</v>
       </c>
     </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A142" s="2">
         <v>141</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C142" s="2">
         <v>37</v>
@@ -7716,27 +7745,27 @@
         <v>9.18</v>
       </c>
     </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A143" s="2">
         <v>142</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C143" s="2">
         <v>61</v>
       </c>
       <c r="D143" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E143" s="2" t="s">
         <v>170</v>
-      </c>
-      <c r="E143" s="2" t="s">
-        <v>171</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H143" s="2" t="s">
         <v>19</v>
@@ -7763,21 +7792,21 @@
         <v>16.239999999999998</v>
       </c>
     </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A144" s="3">
         <v>143</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C144" s="3">
         <v>49</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E144" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F144" s="3" t="s">
         <v>22</v>
@@ -7810,21 +7839,21 @@
         <v>12.780000000000003</v>
       </c>
     </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A145" s="2">
         <v>144</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C145" s="2">
         <v>54</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>22</v>
@@ -7857,21 +7886,21 @@
         <v>14.380000000000003</v>
       </c>
     </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
         <v>145</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C146" s="2">
         <v>63</v>
       </c>
       <c r="D146" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E146" s="2" t="s">
         <v>176</v>
-      </c>
-      <c r="E146" s="2" t="s">
-        <v>177</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>22</v>
@@ -7880,7 +7909,7 @@
         <v>18</v>
       </c>
       <c r="H146" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I146" s="2">
         <v>2</v>
@@ -7904,30 +7933,30 @@
         <v>16.66</v>
       </c>
     </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A147" s="2">
         <v>146</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C147" s="2">
         <v>80</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H147" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I147" s="2">
         <v>2</v>
@@ -7951,21 +7980,21 @@
         <v>20.86</v>
       </c>
     </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A148" s="2">
         <v>147</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C148" s="2">
         <v>65</v>
       </c>
       <c r="D148" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E148" s="2" t="s">
         <v>176</v>
-      </c>
-      <c r="E148" s="2" t="s">
-        <v>177</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>22</v>
@@ -7974,7 +8003,7 @@
         <v>23</v>
       </c>
       <c r="H148" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I148" s="2">
         <v>2</v>
@@ -7998,21 +8027,21 @@
         <v>16.84</v>
       </c>
     </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A149" s="2">
         <v>148</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C149" s="2">
         <v>58</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>35</v>
@@ -8021,7 +8050,7 @@
         <v>17</v>
       </c>
       <c r="H149" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I149" s="2">
         <v>1</v>
@@ -8045,30 +8074,30 @@
         <v>14.980000000000002</v>
       </c>
     </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A150" s="3">
         <v>149</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C150" s="3">
         <v>50</v>
       </c>
       <c r="D150" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E150" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F150" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G150" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H150" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I150" s="3">
         <v>2</v>
@@ -8092,30 +8121,30 @@
         <v>13.66</v>
       </c>
     </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A151" s="3">
         <v>150</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C151" s="3">
         <v>55</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E151" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F151" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G151" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H151" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I151" s="3">
         <v>2</v>
@@ -8139,109 +8168,109 @@
         <v>15.040000000000001</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" s="4" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A180" s="4" t="s">
         <v>185</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A180" s="4" t="s">
-        <v>186</v>
       </c>
       <c r="B180" s="2">
         <f>SUMPRODUCT(C2:C151, I2:I151)/SUM(I2:I151)</f>
         <v>50.552795031055901</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B181" s="2">
         <f>STDEV(C2:C151)/AVERAGE(C2:C151)</f>
         <v>0.35652008700424909</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B182" s="2">
         <f>PERCENTILE(C2:C151, 0.1)</f>
         <v>25</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B183" s="2">
         <f>PERCENTILE(C2:C151, 0.25)</f>
         <v>35</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B184" s="2">
         <f>PERCENTILE(C2:C151, 0.5)</f>
         <v>50</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B185" s="2">
         <f>PERCENTILE(C2:C151, 0.75)</f>
         <v>63</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B186" s="2">
         <f>PERCENTILE(C2:C151, 0.9)</f>
         <v>74</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B187" s="2">
         <f>AVERAGE(C2:C151)-1.96*STDEV(C2:C151)/SQRT(COUNT(C2:C151))</f>
         <v>46.98380138246285</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B188" s="2">
         <f>AVERAGE(C2:C151)+1.96*STDEV(C2:C151)/SQRT(COUNT(C2:C151))</f>
         <v>52.669531950870486</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" s="4" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B194" s="2">
         <f>_xlfn.CHISQ.TEST(I2:I151, K2:K151)</f>
         <v>5.2891848646946749E-15</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" s="4" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B199" s="2">
         <f>_xlfn.T.TEST(I2:I151, J2:J151, 2, 1)</f>
         <v>8.1218746108791668E-4</v>
@@ -8249,5 +8278,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>